--- a/Tipos de variable (comparativo).xlsx
+++ b/Tipos de variable (comparativo).xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="592">
   <si>
     <t>Variable</t>
   </si>
@@ -1140,9 +1140,6 @@
     <t>f90_2</t>
   </si>
   <si>
-    <t>f91_1</t>
-  </si>
-  <si>
     <t>f92</t>
   </si>
   <si>
@@ -1804,6 +1801,9 @@
   </si>
   <si>
     <t>Nominal/Ordinal</t>
+  </si>
+  <si>
+    <t>f91_2</t>
   </si>
 </sst>
 </file>
@@ -25436,7 +25436,7 @@
   <dimension ref="A1:J584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A16" sqref="A16:A577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25472,13 +25472,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -25486,7 +25486,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -25504,7 +25504,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J2" s="4">
         <v>64</v>
@@ -25515,7 +25515,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -25533,7 +25533,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J3" s="4">
         <v>510</v>
@@ -25544,7 +25544,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -25565,7 +25565,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J4" s="4">
         <v>9</v>
@@ -25576,7 +25576,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -25594,7 +25594,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J5" s="4">
         <v>583</v>
@@ -25605,7 +25605,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -25631,7 +25631,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -25654,22 +25654,20 @@
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="str">
-        <f>VLOOKUP(A8,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
-        <v>Numerica</v>
-      </c>
-      <c r="F8" t="str">
-        <f>VLOOKUP(A8,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>Discreta</v>
+      <c r="E8" t="s">
+        <v>572</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
       </c>
       <c r="G8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -25677,7 +25675,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -25700,7 +25698,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -25726,7 +25724,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
@@ -25749,7 +25747,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -25772,7 +25770,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -25798,7 +25796,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -25824,7 +25822,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -25850,7 +25848,7 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
@@ -25873,7 +25871,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
@@ -25896,7 +25894,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
@@ -25919,7 +25917,7 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -25942,10 +25940,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E20" t="str">
         <f>VLOOKUP(A20,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -25965,22 +25963,20 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="E21" t="str">
-        <f>VLOOKUP(A21,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
-        <v>Numerica</v>
-      </c>
-      <c r="F21" t="str">
-        <f>VLOOKUP(A21,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>Discreta</v>
+      <c r="E21" t="s">
+        <v>572</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
       </c>
       <c r="G21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -25988,7 +25984,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -26014,7 +26010,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -26040,7 +26036,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -26066,7 +26062,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -26089,13 +26085,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E26" t="str">
         <f>VLOOKUP(A26,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26115,10 +26111,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E27" t="str">
         <f>VLOOKUP(A27,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26135,13 +26131,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E28" t="str">
         <f>VLOOKUP(A28,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26158,13 +26154,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B29" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E29" t="str">
         <f>VLOOKUP(A29,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26181,13 +26177,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E30" t="str">
         <f>VLOOKUP(A30,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26204,13 +26200,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B31" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E31" t="str">
         <f>VLOOKUP(A31,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26227,13 +26223,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E32" t="str">
         <f>VLOOKUP(A32,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26250,13 +26246,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E33" t="str">
         <f>VLOOKUP(A33,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26273,13 +26269,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E34" t="str">
         <f>VLOOKUP(A34,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26299,10 +26295,10 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E35" t="str">
         <f>VLOOKUP(A35,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26322,10 +26318,10 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C36" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E36" t="str">
         <f>VLOOKUP(A36,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26345,10 +26341,10 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E37" t="str">
         <f>VLOOKUP(A37,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26368,10 +26364,10 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E38" t="str">
         <f>VLOOKUP(A38,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26391,10 +26387,10 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E39" t="str">
         <f>VLOOKUP(A39,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26414,7 +26410,7 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
@@ -26437,7 +26433,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
@@ -26455,7 +26451,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -26463,7 +26459,7 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -26486,7 +26482,7 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
@@ -26509,7 +26505,7 @@
         <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
@@ -26532,10 +26528,10 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E45" t="str">
         <f>VLOOKUP(A45,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26555,7 +26551,7 @@
         <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C46" t="s">
         <v>43</v>
@@ -26578,7 +26574,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C47" t="s">
         <v>43</v>
@@ -26601,51 +26597,57 @@
         <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C48" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E48" t="str">
         <f>VLOOKUP(A48,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
         <v>Categorica</v>
       </c>
       <c r="F48" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G48" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C49" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E49" t="str">
         <f>VLOOKUP(A49,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
         <v>Categorica</v>
       </c>
       <c r="F49" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G49" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C50" t="s">
         <v>45</v>
@@ -26663,12 +26665,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C51" t="s">
         <v>43</v>
@@ -26686,12 +26688,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C52" t="s">
         <v>44</v>
@@ -26709,12 +26711,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C53" t="s">
         <v>44</v>
@@ -26732,12 +26734,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C54" t="s">
         <v>44</v>
@@ -26755,12 +26757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C55" t="s">
         <v>44</v>
@@ -26778,12 +26780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C56" t="s">
         <v>45</v>
@@ -26801,12 +26803,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C57" t="s">
         <v>44</v>
@@ -26824,15 +26826,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C58" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E58" t="str">
         <f>VLOOKUP(A58,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26847,15 +26849,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E59" t="str">
         <f>VLOOKUP(A59,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26870,15 +26872,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C60" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E60" t="str">
         <f>VLOOKUP(A60,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26893,15 +26895,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C61" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E61" t="str">
         <f>VLOOKUP(A61,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26916,15 +26918,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C62" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E62" t="str">
         <f>VLOOKUP(A62,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26939,12 +26941,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C63" t="s">
         <v>43</v>
@@ -26962,15 +26964,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C64" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E64" t="str">
         <f>VLOOKUP(A64,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -26990,7 +26992,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C65" t="s">
         <v>43</v>
@@ -27013,10 +27015,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E66" t="str">
         <f>VLOOKUP(A66,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27036,10 +27038,10 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E67" t="str">
         <f>VLOOKUP(A67,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27059,10 +27061,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C68" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E68" t="str">
         <f>VLOOKUP(A68,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27082,10 +27084,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C69" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E69" t="str">
         <f>VLOOKUP(A69,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27105,10 +27107,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C70" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E70" t="str">
         <f>VLOOKUP(A70,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27128,10 +27130,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C71" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E71" t="str">
         <f>VLOOKUP(A71,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27151,10 +27153,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C72" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E72" t="str">
         <f>VLOOKUP(A72,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27174,7 +27176,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C73" t="s">
         <v>43</v>
@@ -27197,10 +27199,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C74" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E74" t="str">
         <f>VLOOKUP(A74,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27220,10 +27222,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C75" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E75" t="str">
         <f>VLOOKUP(A75,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27243,7 +27245,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C76" t="s">
         <v>43</v>
@@ -27266,10 +27268,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C77" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E77" t="str">
         <f>VLOOKUP(A77,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27289,7 +27291,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C78" t="s">
         <v>43</v>
@@ -27312,10 +27314,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C79" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E79" t="str">
         <f>VLOOKUP(A79,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27335,7 +27337,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C80" t="s">
         <v>43</v>
@@ -27358,10 +27360,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C81" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E81" t="str">
         <f>VLOOKUP(A81,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27381,10 +27383,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C82" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E82" t="str">
         <f>VLOOKUP(A82,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27404,10 +27406,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C83" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E83" t="str">
         <f>VLOOKUP(A83,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27427,10 +27429,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C84" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E84" t="str">
         <f>VLOOKUP(A84,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27450,10 +27452,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C85" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E85" t="str">
         <f>VLOOKUP(A85,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27473,10 +27475,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C86" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E86" t="str">
         <f>VLOOKUP(A86,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27496,7 +27498,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C87" t="s">
         <v>43</v>
@@ -27519,10 +27521,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C88" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E88" t="str">
         <f>VLOOKUP(A88,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27542,7 +27544,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C89" t="s">
         <v>43</v>
@@ -27565,10 +27567,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C90" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E90" t="str">
         <f>VLOOKUP(A90,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27588,7 +27590,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C91" t="s">
         <v>43</v>
@@ -27611,7 +27613,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C92" t="s">
         <v>43</v>
@@ -27634,10 +27636,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C93" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E93" t="str">
         <f>VLOOKUP(A93,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27657,7 +27659,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C94" t="s">
         <v>43</v>
@@ -27680,10 +27682,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C95" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E95" t="str">
         <f>VLOOKUP(A95,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27703,7 +27705,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C96" t="s">
         <v>43</v>
@@ -27721,56 +27723,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C97" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E97" t="str">
         <f>VLOOKUP(A97,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
         <v>Categorica</v>
       </c>
       <c r="F97" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G97" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C98" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E98" t="str">
         <f>VLOOKUP(A98,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
         <v>Categorica</v>
       </c>
       <c r="F98" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G98" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C99" t="s">
         <v>43</v>
@@ -27788,12 +27796,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C100" t="s">
         <v>43</v>
@@ -27811,12 +27819,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C101" t="s">
         <v>43</v>
@@ -27834,15 +27842,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C102" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E102" t="str">
         <f>VLOOKUP(A102,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27857,12 +27865,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C103" t="s">
         <v>46</v>
@@ -27880,15 +27888,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C104" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E104" t="str">
         <f>VLOOKUP(A104,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27903,12 +27911,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C105" t="s">
         <v>46</v>
@@ -27926,15 +27934,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C106" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E106" t="str">
         <f>VLOOKUP(A106,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27949,12 +27957,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C107" t="s">
         <v>43</v>
@@ -27972,15 +27980,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C108" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E108" t="str">
         <f>VLOOKUP(A108,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -27995,12 +28003,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C109" t="s">
         <v>43</v>
@@ -28018,15 +28026,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C110" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E110" t="str">
         <f>VLOOKUP(A110,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28041,12 +28049,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C111" t="s">
         <v>43</v>
@@ -28064,12 +28072,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C112" t="s">
         <v>43</v>
@@ -28092,7 +28100,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C113" t="s">
         <v>43</v>
@@ -28115,10 +28123,10 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C114" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E114" t="str">
         <f>VLOOKUP(A114,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28138,7 +28146,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C115" t="s">
         <v>46</v>
@@ -28161,7 +28169,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C116" t="s">
         <v>43</v>
@@ -28184,7 +28192,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C117" t="s">
         <v>43</v>
@@ -28207,10 +28215,10 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C118" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E118" t="str">
         <f>VLOOKUP(A118,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28230,10 +28238,10 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C119" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E119" t="str">
         <f>VLOOKUP(A119,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28253,7 +28261,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C120" t="s">
         <v>46</v>
@@ -28276,7 +28284,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C121" t="s">
         <v>46</v>
@@ -28299,10 +28307,10 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C122" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E122" t="str">
         <f>VLOOKUP(A122,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28322,10 +28330,10 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C123" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E123" t="str">
         <f>VLOOKUP(A123,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28345,7 +28353,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C124" t="s">
         <v>46</v>
@@ -28368,7 +28376,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C125" t="s">
         <v>46</v>
@@ -28391,7 +28399,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C126" t="s">
         <v>46</v>
@@ -28414,7 +28422,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C127" t="s">
         <v>46</v>
@@ -28437,10 +28445,10 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C128" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E128" t="str">
         <f>VLOOKUP(A128,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28460,7 +28468,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C129" t="s">
         <v>46</v>
@@ -28483,10 +28491,10 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C130" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E130" t="str">
         <f>VLOOKUP(A130,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28506,7 +28514,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C131" t="s">
         <v>46</v>
@@ -28529,7 +28537,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C132" t="s">
         <v>44</v>
@@ -28552,7 +28560,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C133" t="s">
         <v>46</v>
@@ -28575,10 +28583,10 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C134" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E134" t="str">
         <f>VLOOKUP(A134,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28598,7 +28606,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C135" t="s">
         <v>46</v>
@@ -28621,10 +28629,10 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C136" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E136" t="str">
         <f>VLOOKUP(A136,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28644,7 +28652,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C137" t="s">
         <v>46</v>
@@ -28667,10 +28675,10 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C138" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E138" t="str">
         <f>VLOOKUP(A138,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28690,7 +28698,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C139" t="s">
         <v>46</v>
@@ -28713,10 +28721,10 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C140" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E140" t="str">
         <f>VLOOKUP(A140,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28736,7 +28744,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C141" t="s">
         <v>46</v>
@@ -28759,10 +28767,10 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C142" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E142" t="str">
         <f>VLOOKUP(A142,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28782,7 +28790,7 @@
         <v>106</v>
       </c>
       <c r="B143" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C143" t="s">
         <v>46</v>
@@ -28805,10 +28813,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C144" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E144" t="str">
         <f>VLOOKUP(A144,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28828,7 +28836,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C145" t="s">
         <v>46</v>
@@ -28851,7 +28859,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C146" t="s">
         <v>43</v>
@@ -28874,10 +28882,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C147" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E147" t="str">
         <f>VLOOKUP(A147,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28897,7 +28905,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C148" t="s">
         <v>46</v>
@@ -28920,10 +28928,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C149" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E149" t="str">
         <f>VLOOKUP(A149,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28943,7 +28951,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C150" t="s">
         <v>46</v>
@@ -28966,10 +28974,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C151" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E151" t="str">
         <f>VLOOKUP(A151,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -28989,7 +28997,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C152" t="s">
         <v>46</v>
@@ -29012,10 +29020,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C153" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E153" t="str">
         <f>VLOOKUP(A153,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -29035,7 +29043,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C154" t="s">
         <v>46</v>
@@ -29058,7 +29066,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C155" t="s">
         <v>45</v>
@@ -29081,7 +29089,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C156" t="s">
         <v>45</v>
@@ -29104,7 +29112,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C157" t="s">
         <v>45</v>
@@ -29127,7 +29135,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C158" t="s">
         <v>45</v>
@@ -29150,7 +29158,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C159" t="s">
         <v>45</v>
@@ -29173,7 +29181,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C160" t="s">
         <v>45</v>
@@ -29196,7 +29204,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C161" t="s">
         <v>45</v>
@@ -29219,10 +29227,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C162" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E162" t="str">
         <f>VLOOKUP(A162,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -29242,7 +29250,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C163" t="s">
         <v>46</v>
@@ -29265,7 +29273,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C164" t="s">
         <v>46</v>
@@ -29288,7 +29296,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C165" t="s">
         <v>46</v>
@@ -29311,7 +29319,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C166" t="s">
         <v>43</v>
@@ -29334,7 +29342,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C167" t="s">
         <v>46</v>
@@ -29357,7 +29365,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C168" t="s">
         <v>46</v>
@@ -29380,7 +29388,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C169" t="s">
         <v>46</v>
@@ -29403,7 +29411,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C170" t="s">
         <v>46</v>
@@ -29426,10 +29434,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C171" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E171" t="str">
         <f>VLOOKUP(A171,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -29449,10 +29457,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C172" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E172" t="str">
         <f>VLOOKUP(A172,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -29472,7 +29480,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C173" t="s">
         <v>46</v>
@@ -29495,7 +29503,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C174" t="s">
         <v>46</v>
@@ -29518,10 +29526,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C175" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E175" t="str">
         <f>VLOOKUP(A175,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -29541,10 +29549,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C176" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E176" t="str">
         <f>VLOOKUP(A176,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -29559,15 +29567,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C177" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E177" t="str">
         <f>VLOOKUP(A177,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -29582,12 +29590,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C178" t="s">
         <v>46</v>
@@ -29605,12 +29613,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C179" t="s">
         <v>46</v>
@@ -29628,12 +29636,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C180" t="s">
         <v>46</v>
@@ -29651,12 +29659,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C181" t="s">
         <v>46</v>
@@ -29674,12 +29682,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C182" t="s">
         <v>46</v>
@@ -29697,12 +29705,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C183" t="s">
         <v>46</v>
@@ -29720,34 +29728,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C184" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E184" t="str">
         <f>VLOOKUP(A184,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
         <v>Categorica</v>
       </c>
       <c r="F184" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G184" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C185" t="s">
         <v>46</v>
@@ -29765,12 +29776,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C186" t="s">
         <v>46</v>
@@ -29788,12 +29799,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C187" t="s">
         <v>46</v>
@@ -29811,12 +29822,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C188" t="s">
         <v>46</v>
@@ -29834,12 +29845,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C189" t="s">
         <v>46</v>
@@ -29857,12 +29868,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C190" t="s">
         <v>46</v>
@@ -29880,12 +29891,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C191" t="s">
         <v>46</v>
@@ -29903,12 +29914,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>3</v>
       </c>
       <c r="B192" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C192" t="s">
         <v>43</v>
@@ -29931,7 +29942,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C193" t="s">
         <v>43</v>
@@ -29954,7 +29965,7 @@
         <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C194" t="s">
         <v>43</v>
@@ -29977,7 +29988,7 @@
         <v>5</v>
       </c>
       <c r="B195" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C195" t="s">
         <v>43</v>
@@ -30000,7 +30011,7 @@
         <v>192</v>
       </c>
       <c r="B196" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C196" t="s">
         <v>43</v>
@@ -30023,7 +30034,7 @@
         <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C197" t="s">
         <v>43</v>
@@ -30046,7 +30057,7 @@
         <v>7</v>
       </c>
       <c r="B198" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C198" t="s">
         <v>44</v>
@@ -30069,7 +30080,7 @@
         <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C199" t="s">
         <v>44</v>
@@ -30092,22 +30103,20 @@
         <v>9</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E200" t="str">
-        <f>VLOOKUP(A200,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
-        <v>Numerica</v>
-      </c>
-      <c r="F200" t="str">
-        <f>VLOOKUP(A200,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>Discreta</v>
+      <c r="E200" t="s">
+        <v>572</v>
+      </c>
+      <c r="F200" t="s">
+        <v>44</v>
       </c>
       <c r="G200" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -30115,7 +30124,7 @@
         <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C201" t="s">
         <v>44</v>
@@ -30138,7 +30147,7 @@
         <v>193</v>
       </c>
       <c r="B202" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C202" t="s">
         <v>44</v>
@@ -30161,7 +30170,7 @@
         <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C203" t="s">
         <v>44</v>
@@ -30184,7 +30193,7 @@
         <v>14</v>
       </c>
       <c r="B204" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C204" t="s">
         <v>44</v>
@@ -30207,7 +30216,7 @@
         <v>15</v>
       </c>
       <c r="B205" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C205" t="s">
         <v>44</v>
@@ -30230,7 +30239,7 @@
         <v>16</v>
       </c>
       <c r="B206" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C206" t="s">
         <v>45</v>
@@ -30253,7 +30262,7 @@
         <v>194</v>
       </c>
       <c r="B207" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C207" t="s">
         <v>46</v>
@@ -30276,7 +30285,7 @@
         <v>195</v>
       </c>
       <c r="B208" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C208" t="s">
         <v>46</v>
@@ -30299,7 +30308,7 @@
         <v>196</v>
       </c>
       <c r="B209" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C209" t="s">
         <v>46</v>
@@ -30322,7 +30331,7 @@
         <v>197</v>
       </c>
       <c r="B210" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C210" t="s">
         <v>46</v>
@@ -30345,10 +30354,10 @@
         <v>198</v>
       </c>
       <c r="B211" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C211" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E211" t="str">
         <f>VLOOKUP(A211,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -30368,10 +30377,10 @@
         <v>199</v>
       </c>
       <c r="B212" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C212" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E212" t="str">
         <f>VLOOKUP(A212,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -30391,10 +30400,10 @@
         <v>200</v>
       </c>
       <c r="B213" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C213" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E213" t="str">
         <f>VLOOKUP(A213,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -30414,7 +30423,7 @@
         <v>201</v>
       </c>
       <c r="B214" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C214" t="s">
         <v>44</v>
@@ -30437,10 +30446,10 @@
         <v>202</v>
       </c>
       <c r="B215" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C215" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E215" t="str">
         <f>VLOOKUP(A215,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -30460,10 +30469,10 @@
         <v>203</v>
       </c>
       <c r="B216" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C216" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E216" t="str">
         <f>VLOOKUP(A216,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -30483,10 +30492,10 @@
         <v>204</v>
       </c>
       <c r="B217" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C217" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E217" t="str">
         <f>VLOOKUP(A217,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -30506,10 +30515,10 @@
         <v>205</v>
       </c>
       <c r="B218" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C218" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E218" t="str">
         <f>VLOOKUP(A218,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -30529,10 +30538,10 @@
         <v>206</v>
       </c>
       <c r="B219" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C219" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E219" t="str">
         <f>VLOOKUP(A219,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -30552,10 +30561,10 @@
         <v>207</v>
       </c>
       <c r="B220" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C220" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E220" t="str">
         <f>VLOOKUP(A220,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -30575,7 +30584,7 @@
         <v>208</v>
       </c>
       <c r="B221" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C221" t="s">
         <v>44</v>
@@ -30598,7 +30607,7 @@
         <v>209</v>
       </c>
       <c r="B222" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C222" t="s">
         <v>44</v>
@@ -30621,10 +30630,10 @@
         <v>210</v>
       </c>
       <c r="B223" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C223" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E223" t="str">
         <f>VLOOKUP(A223,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -30644,7 +30653,7 @@
         <v>211</v>
       </c>
       <c r="B224" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C224" t="s">
         <v>43</v>
@@ -30667,10 +30676,10 @@
         <v>212</v>
       </c>
       <c r="B225" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C225" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E225" t="str">
         <f>VLOOKUP(A225,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -30690,7 +30699,7 @@
         <v>213</v>
       </c>
       <c r="B226" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C226" t="s">
         <v>43</v>
@@ -30713,10 +30722,10 @@
         <v>214</v>
       </c>
       <c r="B227" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C227" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E227" t="str">
         <f>VLOOKUP(A227,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -30736,7 +30745,7 @@
         <v>215</v>
       </c>
       <c r="B228" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C228" t="s">
         <v>43</v>
@@ -30759,7 +30768,7 @@
         <v>217</v>
       </c>
       <c r="B229" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C229" t="s">
         <v>44</v>
@@ -30782,7 +30791,7 @@
         <v>216</v>
       </c>
       <c r="B230" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C230" t="s">
         <v>44</v>
@@ -30805,10 +30814,10 @@
         <v>218</v>
       </c>
       <c r="B231" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C231" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E231" t="str">
         <f>VLOOKUP(A231,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -30828,7 +30837,7 @@
         <v>219</v>
       </c>
       <c r="B232" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C232" t="s">
         <v>43</v>
@@ -30851,7 +30860,7 @@
         <v>220</v>
       </c>
       <c r="B233" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C233" t="s">
         <v>43</v>
@@ -30874,7 +30883,7 @@
         <v>221</v>
       </c>
       <c r="B234" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C234" t="s">
         <v>43</v>
@@ -30897,7 +30906,7 @@
         <v>222</v>
       </c>
       <c r="B235" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C235" t="s">
         <v>43</v>
@@ -30920,7 +30929,7 @@
         <v>223</v>
       </c>
       <c r="B236" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C236" t="s">
         <v>44</v>
@@ -30943,7 +30952,7 @@
         <v>224</v>
       </c>
       <c r="B237" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C237" t="s">
         <v>44</v>
@@ -30966,22 +30975,20 @@
         <v>225</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E238" t="str">
-        <f>VLOOKUP(A238,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
-        <v>Numerica</v>
-      </c>
-      <c r="F238" t="str">
-        <f>VLOOKUP(A238,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>Discreta</v>
+      <c r="E238" t="s">
+        <v>572</v>
+      </c>
+      <c r="F238" t="s">
+        <v>44</v>
       </c>
       <c r="G238" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -30989,10 +30996,10 @@
         <v>226</v>
       </c>
       <c r="B239" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C239" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E239" t="str">
         <f>VLOOKUP(A239,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -31012,7 +31019,7 @@
         <v>227</v>
       </c>
       <c r="B240" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C240" t="s">
         <v>43</v>
@@ -31035,7 +31042,7 @@
         <v>228</v>
       </c>
       <c r="B241" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C241" t="s">
         <v>44</v>
@@ -31058,7 +31065,7 @@
         <v>229</v>
       </c>
       <c r="B242" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C242" t="s">
         <v>44</v>
@@ -31081,22 +31088,20 @@
         <v>230</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E243" t="str">
-        <f>VLOOKUP(A243,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
-        <v>Numerica</v>
-      </c>
-      <c r="F243" t="str">
-        <f>VLOOKUP(A243,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>Discreta</v>
+      <c r="E243" t="s">
+        <v>572</v>
+      </c>
+      <c r="F243" t="s">
+        <v>44</v>
       </c>
       <c r="G243" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -31104,7 +31109,7 @@
         <v>231</v>
       </c>
       <c r="B244" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C244" t="s">
         <v>44</v>
@@ -31127,7 +31132,7 @@
         <v>232</v>
       </c>
       <c r="B245" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C245" t="s">
         <v>44</v>
@@ -31150,22 +31155,20 @@
         <v>233</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E246" t="str">
-        <f>VLOOKUP(A246,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
-        <v>Numerica</v>
-      </c>
-      <c r="F246" t="str">
-        <f>VLOOKUP(A246,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>Discreta</v>
+      <c r="E246" t="s">
+        <v>572</v>
+      </c>
+      <c r="F246" t="s">
+        <v>44</v>
       </c>
       <c r="G246" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -31173,7 +31176,7 @@
         <v>234</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>44</v>
@@ -31182,13 +31185,12 @@
         <f>VLOOKUP(A247,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
         <v>Categorica</v>
       </c>
-      <c r="F247" t="str">
-        <f>VLOOKUP(A247,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>Ordinal</v>
+      <c r="F247" t="s">
+        <v>44</v>
       </c>
       <c r="G247" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -31196,7 +31198,7 @@
         <v>235</v>
       </c>
       <c r="B248" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C248" t="s">
         <v>44</v>
@@ -31219,7 +31221,7 @@
         <v>236</v>
       </c>
       <c r="B249" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C249" t="s">
         <v>43</v>
@@ -31242,7 +31244,7 @@
         <v>237</v>
       </c>
       <c r="B250" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C250" t="s">
         <v>44</v>
@@ -31265,7 +31267,7 @@
         <v>238</v>
       </c>
       <c r="B251" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C251" t="s">
         <v>43</v>
@@ -31288,7 +31290,7 @@
         <v>239</v>
       </c>
       <c r="B252" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C252" t="s">
         <v>44</v>
@@ -31311,7 +31313,7 @@
         <v>240</v>
       </c>
       <c r="B253" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C253" t="s">
         <v>43</v>
@@ -31334,10 +31336,10 @@
         <v>241</v>
       </c>
       <c r="B254" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C254" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E254" t="str">
         <f>VLOOKUP(A254,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -31357,7 +31359,7 @@
         <v>242</v>
       </c>
       <c r="B255" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C255" t="s">
         <v>43</v>
@@ -31380,7 +31382,7 @@
         <v>243</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>44</v>
@@ -31389,24 +31391,23 @@
         <f>VLOOKUP(A256,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
         <v>Categorica</v>
       </c>
-      <c r="F256" t="str">
-        <f>VLOOKUP(A256,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>Ordinal</v>
+      <c r="F256" t="s">
+        <v>44</v>
       </c>
       <c r="G256" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>244</v>
       </c>
       <c r="B257" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C257" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E257" t="str">
         <f>VLOOKUP(A257,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -31421,15 +31422,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>245</v>
       </c>
       <c r="B258" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C258" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E258" t="str">
         <f>VLOOKUP(A258,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -31444,12 +31445,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>246</v>
       </c>
       <c r="B259" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C259" t="s">
         <v>44</v>
@@ -31467,12 +31468,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>247</v>
       </c>
       <c r="B260" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C260" t="s">
         <v>43</v>
@@ -31490,12 +31491,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>248</v>
       </c>
       <c r="B261" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C261" t="s">
         <v>44</v>
@@ -31513,15 +31514,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>249</v>
       </c>
       <c r="B262" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C262" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E262" t="str">
         <f>VLOOKUP(A262,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -31536,12 +31537,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>250</v>
       </c>
       <c r="B263" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C263" t="s">
         <v>44</v>
@@ -31559,12 +31560,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>251</v>
       </c>
       <c r="B264" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C264" t="s">
         <v>43</v>
@@ -31582,12 +31583,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>252</v>
       </c>
       <c r="B265" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C265" t="s">
         <v>45</v>
@@ -31605,12 +31606,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>253</v>
       </c>
       <c r="B266" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C266" t="s">
         <v>45</v>
@@ -31628,12 +31629,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>254</v>
       </c>
       <c r="B267" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C267" t="s">
         <v>44</v>
@@ -31651,12 +31652,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>252</v>
       </c>
       <c r="B268" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C268" t="s">
         <v>305</v>
@@ -31672,39 +31673,41 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>255</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E269" t="str">
         <f>VLOOKUP(A269,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
         <v>Categorica</v>
       </c>
-      <c r="F269" t="str">
-        <f>VLOOKUP(A269,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>Nominal</v>
+      <c r="F269" t="s">
+        <v>574</v>
       </c>
       <c r="G269" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>256</v>
       </c>
       <c r="B270" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C270" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E270" t="str">
         <f>VLOOKUP(A270,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -31719,12 +31722,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>257</v>
       </c>
       <c r="B271" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C271" t="s">
         <v>43</v>
@@ -31742,12 +31745,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>258</v>
       </c>
       <c r="B272" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C272" t="s">
         <v>43</v>
@@ -31770,7 +31773,7 @@
         <v>259</v>
       </c>
       <c r="B273" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C273" t="s">
         <v>43</v>
@@ -31793,7 +31796,7 @@
         <v>260</v>
       </c>
       <c r="B274" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C274" t="s">
         <v>43</v>
@@ -31816,10 +31819,10 @@
         <v>261</v>
       </c>
       <c r="B275" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C275" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E275" t="str">
         <f>VLOOKUP(A275,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -31839,7 +31842,7 @@
         <v>262</v>
       </c>
       <c r="B276" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C276" t="s">
         <v>43</v>
@@ -31862,7 +31865,7 @@
         <v>263</v>
       </c>
       <c r="B277" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C277" t="s">
         <v>43</v>
@@ -31885,10 +31888,10 @@
         <v>264</v>
       </c>
       <c r="B278" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C278" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E278" t="e">
         <f>VLOOKUP(A278,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -31908,7 +31911,7 @@
         <v>265</v>
       </c>
       <c r="B279" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C279" t="s">
         <v>43</v>
@@ -31931,10 +31934,10 @@
         <v>266</v>
       </c>
       <c r="B280" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C280" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E280" t="str">
         <f>VLOOKUP(A280,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -31954,7 +31957,7 @@
         <v>267</v>
       </c>
       <c r="B281" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C281" t="s">
         <v>43</v>
@@ -31977,10 +31980,10 @@
         <v>268</v>
       </c>
       <c r="B282" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C282" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E282" t="str">
         <f>VLOOKUP(A282,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32000,7 +32003,7 @@
         <v>269</v>
       </c>
       <c r="B283" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C283" t="s">
         <v>43</v>
@@ -32023,10 +32026,10 @@
         <v>270</v>
       </c>
       <c r="B284" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C284" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E284" t="str">
         <f>VLOOKUP(A284,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32046,7 +32049,7 @@
         <v>271</v>
       </c>
       <c r="B285" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C285" t="s">
         <v>44</v>
@@ -32069,7 +32072,7 @@
         <v>272</v>
       </c>
       <c r="B286" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C286" t="s">
         <v>44</v>
@@ -32092,7 +32095,7 @@
         <v>273</v>
       </c>
       <c r="B287" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C287" t="s">
         <v>43</v>
@@ -32115,10 +32118,10 @@
         <v>274</v>
       </c>
       <c r="B288" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C288" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E288" t="str">
         <f>VLOOKUP(A288,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32138,7 +32141,7 @@
         <v>275</v>
       </c>
       <c r="B289" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C289" t="s">
         <v>44</v>
@@ -32161,7 +32164,7 @@
         <v>276</v>
       </c>
       <c r="B290" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C290" t="s">
         <v>43</v>
@@ -32184,10 +32187,10 @@
         <v>277</v>
       </c>
       <c r="B291" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C291" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E291" t="str">
         <f>VLOOKUP(A291,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32207,7 +32210,7 @@
         <v>278</v>
       </c>
       <c r="B292" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C292" t="s">
         <v>44</v>
@@ -32230,7 +32233,7 @@
         <v>279</v>
       </c>
       <c r="B293" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C293" t="s">
         <v>43</v>
@@ -32253,10 +32256,10 @@
         <v>280</v>
       </c>
       <c r="B294" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C294" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E294" t="str">
         <f>VLOOKUP(A294,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32276,7 +32279,7 @@
         <v>281</v>
       </c>
       <c r="B295" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C295" t="s">
         <v>44</v>
@@ -32299,7 +32302,7 @@
         <v>282</v>
       </c>
       <c r="B296" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C296" t="s">
         <v>43</v>
@@ -32322,10 +32325,10 @@
         <v>283</v>
       </c>
       <c r="B297" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C297" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E297" t="str">
         <f>VLOOKUP(A297,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32345,7 +32348,7 @@
         <v>284</v>
       </c>
       <c r="B298" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C298" t="s">
         <v>44</v>
@@ -32368,7 +32371,7 @@
         <v>285</v>
       </c>
       <c r="B299" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C299" t="s">
         <v>43</v>
@@ -32391,10 +32394,10 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C300" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E300" t="str">
         <f>VLOOKUP(A300,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32414,7 +32417,7 @@
         <v>287</v>
       </c>
       <c r="B301" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C301" t="s">
         <v>44</v>
@@ -32437,10 +32440,10 @@
         <v>288</v>
       </c>
       <c r="B302" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C302" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E302" t="str">
         <f>VLOOKUP(A302,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32460,7 +32463,7 @@
         <v>289</v>
       </c>
       <c r="B303" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C303" t="s">
         <v>43</v>
@@ -32483,7 +32486,7 @@
         <v>290</v>
       </c>
       <c r="B304" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C304" t="s">
         <v>43</v>
@@ -32506,10 +32509,10 @@
         <v>291</v>
       </c>
       <c r="B305" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C305" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E305" t="str">
         <f>VLOOKUP(A305,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32529,7 +32532,7 @@
         <v>292</v>
       </c>
       <c r="B306" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C306" t="s">
         <v>46</v>
@@ -32552,10 +32555,10 @@
         <v>293</v>
       </c>
       <c r="B307" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C307" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E307" t="str">
         <f>VLOOKUP(A307,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32575,7 +32578,7 @@
         <v>294</v>
       </c>
       <c r="B308" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C308" t="s">
         <v>44</v>
@@ -32598,7 +32601,7 @@
         <v>295</v>
       </c>
       <c r="B309" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C309" t="s">
         <v>43</v>
@@ -32621,10 +32624,10 @@
         <v>296</v>
       </c>
       <c r="B310" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C310" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E310" t="str">
         <f>VLOOKUP(A310,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32644,10 +32647,10 @@
         <v>297</v>
       </c>
       <c r="B311" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C311" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E311" t="str">
         <f>VLOOKUP(A311,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32667,10 +32670,10 @@
         <v>298</v>
       </c>
       <c r="B312" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C312" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E312" t="str">
         <f>VLOOKUP(A312,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32690,10 +32693,10 @@
         <v>299</v>
       </c>
       <c r="B313" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C313" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E313" t="str">
         <f>VLOOKUP(A313,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32713,7 +32716,7 @@
         <v>300</v>
       </c>
       <c r="B314" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C314" t="s">
         <v>44</v>
@@ -32736,7 +32739,7 @@
         <v>301</v>
       </c>
       <c r="B315" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C315" t="s">
         <v>44</v>
@@ -32759,7 +32762,7 @@
         <v>302</v>
       </c>
       <c r="B316" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C316" t="s">
         <v>44</v>
@@ -32782,10 +32785,10 @@
         <v>303</v>
       </c>
       <c r="B317" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C317" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E317" t="str">
         <f>VLOOKUP(A317,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32805,22 +32808,21 @@
         <v>304</v>
       </c>
       <c r="B318" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E318" t="str">
         <f>VLOOKUP(A318,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
         <v>Categorica</v>
       </c>
-      <c r="F318" t="str">
-        <f>VLOOKUP(A318,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>Nominal</v>
+      <c r="F318" t="s">
+        <v>553</v>
       </c>
       <c r="G318" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -32828,10 +32830,10 @@
         <v>306</v>
       </c>
       <c r="B319" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C319" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E319" t="str">
         <f>VLOOKUP(A319,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32851,7 +32853,7 @@
         <v>307</v>
       </c>
       <c r="B320" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C320" t="s">
         <v>43</v>
@@ -32874,10 +32876,10 @@
         <v>308</v>
       </c>
       <c r="B321" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C321" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E321" t="str">
         <f>VLOOKUP(A321,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32897,10 +32899,10 @@
         <v>309</v>
       </c>
       <c r="B322" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C322" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E322" t="str">
         <f>VLOOKUP(A322,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32920,10 +32922,10 @@
         <v>310</v>
       </c>
       <c r="B323" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C323" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E323" t="str">
         <f>VLOOKUP(A323,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -32943,7 +32945,7 @@
         <v>311</v>
       </c>
       <c r="B324" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C324" t="s">
         <v>44</v>
@@ -32966,7 +32968,7 @@
         <v>312</v>
       </c>
       <c r="B325" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C325" t="s">
         <v>44</v>
@@ -32989,7 +32991,7 @@
         <v>313</v>
       </c>
       <c r="B326" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C326" t="s">
         <v>44</v>
@@ -33012,10 +33014,10 @@
         <v>314</v>
       </c>
       <c r="B327" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C327" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E327" t="str">
         <f>VLOOKUP(A327,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33035,7 +33037,7 @@
         <v>315</v>
       </c>
       <c r="B328" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C328" t="s">
         <v>44</v>
@@ -33058,10 +33060,10 @@
         <v>316</v>
       </c>
       <c r="B329" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C329" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E329" t="str">
         <f>VLOOKUP(A329,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33081,10 +33083,10 @@
         <v>317</v>
       </c>
       <c r="B330" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C330" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E330" t="str">
         <f>VLOOKUP(A330,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33104,7 +33106,7 @@
         <v>318</v>
       </c>
       <c r="B331" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C331" t="s">
         <v>44</v>
@@ -33127,7 +33129,7 @@
         <v>319</v>
       </c>
       <c r="B332" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C332" t="s">
         <v>44</v>
@@ -33150,10 +33152,10 @@
         <v>320</v>
       </c>
       <c r="B333" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C333" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E333" t="str">
         <f>VLOOKUP(A333,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33173,10 +33175,10 @@
         <v>321</v>
       </c>
       <c r="B334" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C334" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E334" t="str">
         <f>VLOOKUP(A334,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33196,10 +33198,10 @@
         <v>322</v>
       </c>
       <c r="B335" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C335" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E335" t="str">
         <f>VLOOKUP(A335,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33219,10 +33221,10 @@
         <v>323</v>
       </c>
       <c r="B336" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C336" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E336" t="str">
         <f>VLOOKUP(A336,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33242,10 +33244,10 @@
         <v>324</v>
       </c>
       <c r="B337" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C337" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E337" t="str">
         <f>VLOOKUP(A337,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33265,10 +33267,10 @@
         <v>325</v>
       </c>
       <c r="B338" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C338" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E338" t="str">
         <f>VLOOKUP(A338,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33288,10 +33290,10 @@
         <v>326</v>
       </c>
       <c r="B339" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C339" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E339" t="str">
         <f>VLOOKUP(A339,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33311,10 +33313,10 @@
         <v>327</v>
       </c>
       <c r="B340" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C340" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E340" t="str">
         <f>VLOOKUP(A340,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33334,7 +33336,7 @@
         <v>328</v>
       </c>
       <c r="B341" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C341" t="s">
         <v>44</v>
@@ -33357,22 +33359,21 @@
         <v>329</v>
       </c>
       <c r="B342" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E342" t="str">
         <f>VLOOKUP(A342,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
         <v>Categorica</v>
       </c>
-      <c r="F342" t="str">
-        <f>VLOOKUP(A342,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>Nominal</v>
+      <c r="F342" t="s">
+        <v>553</v>
       </c>
       <c r="G342" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -33380,10 +33381,10 @@
         <v>330</v>
       </c>
       <c r="B343" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C343" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E343" t="str">
         <f>VLOOKUP(A343,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33403,7 +33404,7 @@
         <v>331</v>
       </c>
       <c r="B344" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C344" t="s">
         <v>44</v>
@@ -33426,7 +33427,7 @@
         <v>332</v>
       </c>
       <c r="B345" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C345" t="s">
         <v>44</v>
@@ -33449,10 +33450,10 @@
         <v>333</v>
       </c>
       <c r="B346" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C346" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E346" t="str">
         <f>VLOOKUP(A346,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33472,10 +33473,10 @@
         <v>334</v>
       </c>
       <c r="B347" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C347" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E347" t="str">
         <f>VLOOKUP(A347,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33495,10 +33496,10 @@
         <v>335</v>
       </c>
       <c r="B348" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C348" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E348" t="str">
         <f>VLOOKUP(A348,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -33518,22 +33519,21 @@
         <v>336</v>
       </c>
       <c r="B349" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E349" t="str">
         <f>VLOOKUP(A349,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
         <v>Categorica</v>
       </c>
-      <c r="F349" t="str">
-        <f>VLOOKUP(A349,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>Nominal</v>
+      <c r="F349" t="s">
+        <v>553</v>
       </c>
       <c r="G349" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -33541,7 +33541,7 @@
         <v>337</v>
       </c>
       <c r="B350" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C350" t="s">
         <v>44</v>
@@ -33564,7 +33564,7 @@
         <v>338</v>
       </c>
       <c r="B351" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C351" t="s">
         <v>44</v>
@@ -33587,7 +33587,7 @@
         <v>339</v>
       </c>
       <c r="B352" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C352" t="s">
         <v>44</v>
@@ -33610,7 +33610,7 @@
         <v>340</v>
       </c>
       <c r="B353" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C353" t="s">
         <v>44</v>
@@ -33633,7 +33633,7 @@
         <v>341</v>
       </c>
       <c r="B354" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C354" t="s">
         <v>44</v>
@@ -33656,7 +33656,7 @@
         <v>342</v>
       </c>
       <c r="B355" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C355" t="s">
         <v>344</v>
@@ -33679,7 +33679,7 @@
         <v>343</v>
       </c>
       <c r="B356" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C356" t="s">
         <v>344</v>
@@ -33702,7 +33702,7 @@
         <v>345</v>
       </c>
       <c r="B357" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C357" t="s">
         <v>344</v>
@@ -33725,7 +33725,7 @@
         <v>346</v>
       </c>
       <c r="B358" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C358" t="s">
         <v>344</v>
@@ -33748,7 +33748,7 @@
         <v>347</v>
       </c>
       <c r="B359" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C359" t="s">
         <v>344</v>
@@ -33771,7 +33771,7 @@
         <v>348</v>
       </c>
       <c r="B360" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C360" t="s">
         <v>344</v>
@@ -33794,7 +33794,7 @@
         <v>349</v>
       </c>
       <c r="B361" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C361" t="s">
         <v>344</v>
@@ -33817,7 +33817,7 @@
         <v>350</v>
       </c>
       <c r="B362" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C362" t="s">
         <v>44</v>
@@ -33840,7 +33840,7 @@
         <v>351</v>
       </c>
       <c r="B363" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C363" t="s">
         <v>44</v>
@@ -33863,7 +33863,7 @@
         <v>352</v>
       </c>
       <c r="B364" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C364" t="s">
         <v>44</v>
@@ -33886,7 +33886,7 @@
         <v>353</v>
       </c>
       <c r="B365" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C365" t="s">
         <v>344</v>
@@ -33909,7 +33909,7 @@
         <v>354</v>
       </c>
       <c r="B366" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C366" t="s">
         <v>355</v>
@@ -33932,7 +33932,7 @@
         <v>356</v>
       </c>
       <c r="B367" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C367" t="s">
         <v>355</v>
@@ -33955,7 +33955,7 @@
         <v>357</v>
       </c>
       <c r="B368" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C368" t="s">
         <v>44</v>
@@ -33978,10 +33978,10 @@
         <v>358</v>
       </c>
       <c r="B369" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C369" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E369" t="str">
         <f>VLOOKUP(A369,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34001,10 +34001,10 @@
         <v>359</v>
       </c>
       <c r="B370" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C370" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E370" t="str">
         <f>VLOOKUP(A370,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34024,10 +34024,10 @@
         <v>360</v>
       </c>
       <c r="B371" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C371" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E371" t="str">
         <f>VLOOKUP(A371,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34047,10 +34047,10 @@
         <v>361</v>
       </c>
       <c r="B372" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C372" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E372" t="str">
         <f>VLOOKUP(A372,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34070,10 +34070,10 @@
         <v>362</v>
       </c>
       <c r="B373" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C373" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E373" t="str">
         <f>VLOOKUP(A373,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34093,10 +34093,10 @@
         <v>363</v>
       </c>
       <c r="B374" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C374" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E374" t="str">
         <f>VLOOKUP(A374,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34116,10 +34116,10 @@
         <v>364</v>
       </c>
       <c r="B375" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C375" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E375" t="str">
         <f>VLOOKUP(A375,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34139,10 +34139,10 @@
         <v>365</v>
       </c>
       <c r="B376" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C376" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E376" t="str">
         <f>VLOOKUP(A376,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34162,10 +34162,10 @@
         <v>366</v>
       </c>
       <c r="B377" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C377" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E377" t="str">
         <f>VLOOKUP(A377,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34185,10 +34185,10 @@
         <v>367</v>
       </c>
       <c r="B378" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C378" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E378" t="str">
         <f>VLOOKUP(A378,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34208,10 +34208,10 @@
         <v>368</v>
       </c>
       <c r="B379" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C379" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E379" t="str">
         <f>VLOOKUP(A379,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34231,7 +34231,7 @@
         <v>369</v>
       </c>
       <c r="B380" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C380" t="s">
         <v>44</v>
@@ -34251,33 +34251,33 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>370</v>
+        <v>591</v>
       </c>
       <c r="B381" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C381" t="s">
         <v>44</v>
       </c>
-      <c r="E381" t="e">
+      <c r="E381" t="str">
         <f>VLOOKUP(A381,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F381" t="e">
+        <v>Categorica</v>
+      </c>
+      <c r="F381" t="str">
         <f>VLOOKUP(A381,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G381" t="e">
+        <v>Nominal</v>
+      </c>
+      <c r="G381" t="b">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B382" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C382" t="s">
         <v>44</v>
@@ -34297,13 +34297,13 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B383" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C383" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E383" t="str">
         <f>VLOOKUP(A383,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34320,10 +34320,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B384" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C384" t="s">
         <v>44</v>
@@ -34341,12 +34341,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B385" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C385" t="s">
         <v>305</v>
@@ -34362,13 +34362,16 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H385" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B386" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C386" t="s">
         <v>44</v>
@@ -34386,12 +34389,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B387" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C387" t="s">
         <v>44</v>
@@ -34409,12 +34412,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B388" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C388" t="s">
         <v>344</v>
@@ -34432,12 +34435,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B389" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C389" t="s">
         <v>344</v>
@@ -34455,12 +34458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B390" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C390" t="s">
         <v>344</v>
@@ -34478,12 +34481,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B391" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C391" t="s">
         <v>344</v>
@@ -34501,12 +34504,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B392" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C392" t="s">
         <v>344</v>
@@ -34524,12 +34527,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B393" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C393" t="s">
         <v>344</v>
@@ -34547,12 +34550,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B394" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C394" t="s">
         <v>344</v>
@@ -34570,12 +34573,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B395" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C395" t="s">
         <v>344</v>
@@ -34593,15 +34596,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B396" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C396" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E396" t="str">
         <f>VLOOKUP(A396,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34616,15 +34619,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B397" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C397" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E397" t="str">
         <f>VLOOKUP(A397,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34639,12 +34642,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B398" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C398" t="s">
         <v>44</v>
@@ -34662,15 +34665,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B399" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C399" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E399" t="str">
         <f>VLOOKUP(A399,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34685,12 +34688,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B400" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C400" t="s">
         <v>305</v>
@@ -34706,13 +34709,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H400" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B401" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C401" t="s">
         <v>344</v>
@@ -34730,15 +34736,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B402" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C402" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E402" t="str">
         <f>VLOOKUP(A402,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34753,12 +34759,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B403" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C403" t="s">
         <v>44</v>
@@ -34776,15 +34782,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B404" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C404" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E404" t="str">
         <f>VLOOKUP(A404,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34799,12 +34805,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B405" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C405" t="s">
         <v>44</v>
@@ -34822,12 +34828,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B406" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C406" t="s">
         <v>44</v>
@@ -34845,12 +34851,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B407" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C407" t="s">
         <v>355</v>
@@ -34868,15 +34874,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B408" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C408" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E408" t="str">
         <f>VLOOKUP(A408,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34891,15 +34897,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B409" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C409" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E409" t="str">
         <f>VLOOKUP(A409,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34914,15 +34920,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B410" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C410" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E410" t="str">
         <f>VLOOKUP(A410,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -34937,12 +34943,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B411" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C411" t="s">
         <v>44</v>
@@ -34960,12 +34966,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B412" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C412" t="s">
         <v>305</v>
@@ -34981,13 +34987,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H412" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B413" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C413" t="s">
         <v>305</v>
@@ -35003,16 +35012,19 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H413" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B414" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C414" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E414" t="str">
         <f>VLOOKUP(A414,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35027,15 +35039,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B415" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C415" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E415" t="str">
         <f>VLOOKUP(A415,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35050,12 +35062,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B416" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C416" t="s">
         <v>355</v>
@@ -35075,10 +35087,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B417" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C417" t="s">
         <v>355</v>
@@ -35098,10 +35110,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B418" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C418" t="s">
         <v>44</v>
@@ -35121,10 +35133,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B419" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C419" t="s">
         <v>44</v>
@@ -35144,10 +35156,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B420" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C420" t="s">
         <v>44</v>
@@ -35167,10 +35179,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B421" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C421" t="s">
         <v>44</v>
@@ -35190,13 +35202,13 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B422" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C422" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E422" t="str">
         <f>VLOOKUP(A422,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35213,13 +35225,13 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B423" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C423" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E423" t="str">
         <f>VLOOKUP(A423,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35236,13 +35248,13 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B424" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C424" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E424" t="str">
         <f>VLOOKUP(A424,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35259,13 +35271,13 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B425" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C425" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E425" t="str">
         <f>VLOOKUP(A425,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35282,13 +35294,13 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B426" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C426" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E426" t="e">
         <f>VLOOKUP(A426,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35305,13 +35317,13 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B427" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C427" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E427" t="str">
         <f>VLOOKUP(A427,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35328,10 +35340,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B428" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C428" t="s">
         <v>44</v>
@@ -35351,10 +35363,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B429" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C429" t="s">
         <v>46</v>
@@ -35374,10 +35386,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B430" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C430" t="s">
         <v>46</v>
@@ -35397,10 +35409,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B431" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C431" t="s">
         <v>46</v>
@@ -35420,10 +35432,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B432" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C432" t="s">
         <v>46</v>
@@ -35443,10 +35455,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B433" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C433" t="s">
         <v>46</v>
@@ -35466,10 +35478,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B434" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C434" t="s">
         <v>46</v>
@@ -35489,10 +35501,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B435" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C435" t="s">
         <v>46</v>
@@ -35512,10 +35524,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B436" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C436" t="s">
         <v>46</v>
@@ -35535,10 +35547,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B437" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C437" t="s">
         <v>46</v>
@@ -35558,10 +35570,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B438" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C438" t="s">
         <v>46</v>
@@ -35581,10 +35593,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B439" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C439" t="s">
         <v>46</v>
@@ -35604,10 +35616,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B440" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C440" t="s">
         <v>46</v>
@@ -35627,10 +35639,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B441" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C441" t="s">
         <v>46</v>
@@ -35650,10 +35662,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B442" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C442" t="s">
         <v>46</v>
@@ -35673,13 +35685,13 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B443" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C443" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E443" t="str">
         <f>VLOOKUP(A443,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35696,13 +35708,13 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B444" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C444" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E444" t="str">
         <f>VLOOKUP(A444,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35719,13 +35731,13 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B445" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C445" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E445" t="str">
         <f>VLOOKUP(A445,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35742,13 +35754,13 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B446" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C446" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E446" t="str">
         <f>VLOOKUP(A446,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35765,13 +35777,13 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B447" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C447" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E447" t="str">
         <f>VLOOKUP(A447,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35788,13 +35800,13 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B448" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C448" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E448" t="str">
         <f>VLOOKUP(A448,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35811,10 +35823,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B449" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C449" t="s">
         <v>355</v>
@@ -35834,10 +35846,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B450" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C450" t="s">
         <v>355</v>
@@ -35857,10 +35869,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B451" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C451" t="s">
         <v>46</v>
@@ -35880,13 +35892,13 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B452" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C452" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E452" t="str">
         <f>VLOOKUP(A452,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35903,10 +35915,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B453" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C453" t="s">
         <v>46</v>
@@ -35926,13 +35938,13 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B454" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C454" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E454" t="str">
         <f>VLOOKUP(A454,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35949,13 +35961,13 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B455" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C455" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E455" t="str">
         <f>VLOOKUP(A455,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -35972,10 +35984,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B456" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C456" t="s">
         <v>46</v>
@@ -35995,13 +36007,13 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B457" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C457" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E457" t="str">
         <f>VLOOKUP(A457,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36018,10 +36030,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B458" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C458" t="s">
         <v>46</v>
@@ -36041,13 +36053,13 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B459" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C459" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E459" t="str">
         <f>VLOOKUP(A459,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36064,10 +36076,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B460" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C460" t="s">
         <v>46</v>
@@ -36087,10 +36099,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B461" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C461" t="s">
         <v>44</v>
@@ -36110,10 +36122,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B462" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C462" t="s">
         <v>355</v>
@@ -36133,10 +36145,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B463" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C463" t="s">
         <v>355</v>
@@ -36156,10 +36168,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B464" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C464" t="s">
         <v>355</v>
@@ -36179,13 +36191,13 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B465" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C465" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E465" t="str">
         <f>VLOOKUP(A465,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36202,10 +36214,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B466" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C466" t="s">
         <v>46</v>
@@ -36225,10 +36237,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B467" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C467" t="s">
         <v>46</v>
@@ -36248,13 +36260,13 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B468" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C468" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E468" t="str">
         <f>VLOOKUP(A468,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36271,10 +36283,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B469" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C469" t="s">
         <v>46</v>
@@ -36294,10 +36306,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B470" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C470" t="s">
         <v>46</v>
@@ -36317,10 +36329,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B471" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C471" t="s">
         <v>46</v>
@@ -36340,10 +36352,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B472" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C472" t="s">
         <v>46</v>
@@ -36363,10 +36375,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B473" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C473" t="s">
         <v>46</v>
@@ -36386,10 +36398,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B474" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C474" t="s">
         <v>46</v>
@@ -36409,10 +36421,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B475" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C475" t="s">
         <v>46</v>
@@ -36432,10 +36444,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B476" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C476" t="s">
         <v>46</v>
@@ -36455,13 +36467,13 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B477" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C477" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E477" t="str">
         <f>VLOOKUP(A477,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36478,13 +36490,13 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B478" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C478" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E478" t="str">
         <f>VLOOKUP(A478,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36501,13 +36513,13 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B479" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C479" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E479" t="str">
         <f>VLOOKUP(A479,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36524,13 +36536,13 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B480" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C480" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E480" t="str">
         <f>VLOOKUP(A480,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36547,13 +36559,13 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B481" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C481" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E481" t="str">
         <f>VLOOKUP(A481,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36570,13 +36582,13 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B482" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C482" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E482" t="str">
         <f>VLOOKUP(A482,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36593,10 +36605,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B483" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C483" t="s">
         <v>355</v>
@@ -36616,10 +36628,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B484" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C484" t="s">
         <v>355</v>
@@ -36639,10 +36651,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B485" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C485" t="s">
         <v>46</v>
@@ -36662,13 +36674,13 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B486" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C486" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E486" t="str">
         <f>VLOOKUP(A486,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36685,10 +36697,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B487" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C487" t="s">
         <v>46</v>
@@ -36708,13 +36720,13 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B488" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C488" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E488" t="str">
         <f>VLOOKUP(A488,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36731,13 +36743,13 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B489" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C489" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E489" t="str">
         <f>VLOOKUP(A489,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36754,10 +36766,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B490" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C490" t="s">
         <v>46</v>
@@ -36777,13 +36789,13 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B491" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C491" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E491" t="str">
         <f>VLOOKUP(A491,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36800,10 +36812,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B492" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C492" t="s">
         <v>46</v>
@@ -36823,13 +36835,13 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B493" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C493" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E493" t="str">
         <f>VLOOKUP(A493,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36846,10 +36858,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B494" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C494" t="s">
         <v>46</v>
@@ -36869,10 +36881,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B495" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C495" t="s">
         <v>44</v>
@@ -36892,10 +36904,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B496" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C496" t="s">
         <v>355</v>
@@ -36915,10 +36927,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B497" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C497" t="s">
         <v>355</v>
@@ -36938,10 +36950,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B498" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C498" t="s">
         <v>355</v>
@@ -36961,13 +36973,13 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B499" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C499" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E499" t="str">
         <f>VLOOKUP(A499,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -36984,10 +36996,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B500" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C500" t="s">
         <v>46</v>
@@ -37007,10 +37019,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B501" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C501" t="s">
         <v>46</v>
@@ -37030,13 +37042,13 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B502" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C502" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E502" t="str">
         <f>VLOOKUP(A502,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -37053,36 +37065,34 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B503" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C503" t="s">
         <v>46</v>
       </c>
-      <c r="E503" t="e">
-        <f>VLOOKUP(A503,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F503" t="e">
-        <f>VLOOKUP(A503,[1]Editado!$A$4:$G$1099,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G503" t="e">
+      <c r="E503" t="s">
+        <v>573</v>
+      </c>
+      <c r="F503" t="s">
+        <v>46</v>
+      </c>
+      <c r="G503" t="b">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B504" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C504" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E504" t="str">
         <f>VLOOKUP(A504,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -37099,10 +37109,10 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B505" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C505" t="s">
         <v>46</v>
@@ -37122,13 +37132,13 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B506" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C506" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E506" t="str">
         <f>VLOOKUP(A506,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -37145,10 +37155,10 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B507" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C507" t="s">
         <v>46</v>
@@ -37168,10 +37178,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B508" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C508" t="s">
         <v>46</v>
@@ -37191,10 +37201,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B509" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C509" t="s">
         <v>46</v>
@@ -37214,10 +37224,10 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B510" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C510" t="s">
         <v>46</v>
@@ -37237,10 +37247,10 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B511" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C511" t="s">
         <v>46</v>
@@ -37260,10 +37270,10 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B512" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C512" t="s">
         <v>46</v>
@@ -37283,10 +37293,10 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B513" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C513" t="s">
         <v>44</v>
@@ -37306,10 +37316,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B514" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C514" t="s">
         <v>46</v>
@@ -37329,13 +37339,13 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B515" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C515" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E515" t="str">
         <f>VLOOKUP(A515,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -37352,10 +37362,10 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B516" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C516" t="s">
         <v>46</v>
@@ -37375,10 +37385,10 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B517" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C517" t="s">
         <v>46</v>
@@ -37398,10 +37408,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B518" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C518" t="s">
         <v>46</v>
@@ -37421,10 +37431,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B519" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C519" t="s">
         <v>46</v>
@@ -37444,10 +37454,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B520" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C520" t="s">
         <v>46</v>
@@ -37467,10 +37477,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B521" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C521" t="s">
         <v>46</v>
@@ -37490,10 +37500,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B522" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C522" t="s">
         <v>46</v>
@@ -37513,10 +37523,10 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B523" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C523" t="s">
         <v>46</v>
@@ -37536,10 +37546,10 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B524" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C524" t="s">
         <v>46</v>
@@ -37559,10 +37569,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B525" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C525" t="s">
         <v>46</v>
@@ -37582,10 +37592,10 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B526" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C526" t="s">
         <v>46</v>
@@ -37605,10 +37615,10 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B527" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C527" t="s">
         <v>46</v>
@@ -37628,13 +37638,13 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B528" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C528" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E528" t="str">
         <f>VLOOKUP(A528,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -37651,10 +37661,10 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B529" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C529" t="s">
         <v>46</v>
@@ -37674,10 +37684,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B530" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C530" t="s">
         <v>46</v>
@@ -37697,10 +37707,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B531" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C531" t="s">
         <v>46</v>
@@ -37720,10 +37730,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B532" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C532" t="s">
         <v>46</v>
@@ -37743,10 +37753,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B533" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C533" t="s">
         <v>46</v>
@@ -37766,10 +37776,10 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B534" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C534" t="s">
         <v>46</v>
@@ -37789,10 +37799,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B535" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C535" t="s">
         <v>46</v>
@@ -37812,10 +37822,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B536" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C536" t="s">
         <v>46</v>
@@ -37835,10 +37845,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B537" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C537" t="s">
         <v>46</v>
@@ -37858,10 +37868,10 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B538" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C538" t="s">
         <v>46</v>
@@ -37881,10 +37891,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B539" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C539" t="s">
         <v>46</v>
@@ -37904,10 +37914,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B540" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C540" t="s">
         <v>46</v>
@@ -37927,10 +37937,10 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B541" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C541" t="s">
         <v>46</v>
@@ -37950,10 +37960,10 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B542" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C542" t="s">
         <v>46</v>
@@ -37973,10 +37983,10 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B543" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C543" t="s">
         <v>46</v>
@@ -37996,10 +38006,10 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B544" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C544" t="s">
         <v>46</v>
@@ -38019,13 +38029,13 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B545" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C545" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E545" t="str">
         <f>VLOOKUP(A545,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38042,13 +38052,13 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B546" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C546" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E546" t="str">
         <f>VLOOKUP(A546,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38065,13 +38075,13 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B547" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C547" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E547" t="str">
         <f>VLOOKUP(A547,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38088,13 +38098,13 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B548" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C548" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E548" t="str">
         <f>VLOOKUP(A548,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38111,10 +38121,10 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B549" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C549" t="s">
         <v>44</v>
@@ -38134,13 +38144,13 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B550" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C550" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E550" t="str">
         <f>VLOOKUP(A550,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38157,10 +38167,10 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B551" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C551" t="s">
         <v>355</v>
@@ -38180,10 +38190,10 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B552" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C552" t="s">
         <v>355</v>
@@ -38203,10 +38213,10 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B553" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C553" t="s">
         <v>355</v>
@@ -38226,10 +38236,10 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B554" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C554" t="s">
         <v>46</v>
@@ -38249,13 +38259,13 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B555" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C555" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E555" t="str">
         <f>VLOOKUP(A555,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38272,10 +38282,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B556" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C556" t="s">
         <v>46</v>
@@ -38295,10 +38305,10 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B557" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C557" t="s">
         <v>46</v>
@@ -38318,13 +38328,13 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B558" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C558" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E558" t="str">
         <f>VLOOKUP(A558,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38341,10 +38351,10 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B559" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C559" t="s">
         <v>46</v>
@@ -38364,13 +38374,13 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B560" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C560" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E560" t="str">
         <f>VLOOKUP(A560,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38387,10 +38397,10 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B561" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C561" t="s">
         <v>46</v>
@@ -38410,10 +38420,10 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B562" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C562" t="s">
         <v>44</v>
@@ -38433,13 +38443,13 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
+        <v>550</v>
+      </c>
+      <c r="B563" t="s">
+        <v>572</v>
+      </c>
+      <c r="C563" t="s">
         <v>551</v>
-      </c>
-      <c r="B563" t="s">
-        <v>573</v>
-      </c>
-      <c r="C563" t="s">
-        <v>552</v>
       </c>
       <c r="E563" s="7" t="str">
         <f>VLOOKUP(A563,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38456,13 +38466,13 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
+        <v>552</v>
+      </c>
+      <c r="B564" t="s">
+        <v>572</v>
+      </c>
+      <c r="C564" t="s">
         <v>553</v>
-      </c>
-      <c r="B564" t="s">
-        <v>573</v>
-      </c>
-      <c r="C564" t="s">
-        <v>554</v>
       </c>
       <c r="E564" t="str">
         <f>VLOOKUP(A564,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38479,10 +38489,10 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B565" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C565" t="s">
         <v>46</v>
@@ -38502,10 +38512,10 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B566" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C566" t="s">
         <v>46</v>
@@ -38525,10 +38535,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B567" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C567" t="s">
         <v>46</v>
@@ -38548,10 +38558,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B568" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C568" t="s">
         <v>46</v>
@@ -38571,10 +38581,10 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B569" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C569" t="s">
         <v>46</v>
@@ -38594,10 +38604,10 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B570" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C570" t="s">
         <v>46</v>
@@ -38617,10 +38627,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B571" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C571" t="s">
         <v>46</v>
@@ -38640,10 +38650,10 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B572" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C572" t="s">
         <v>46</v>
@@ -38663,10 +38673,10 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B573" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C573" t="s">
         <v>46</v>
@@ -38686,10 +38696,10 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B574" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C574" t="s">
         <v>46</v>
@@ -38709,10 +38719,10 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B575" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C575" t="s">
         <v>46</v>
@@ -38732,10 +38742,10 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B576" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C576" t="s">
         <v>46</v>
@@ -38755,10 +38765,10 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B577" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C577" t="s">
         <v>46</v>
@@ -38778,13 +38788,13 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B578" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C578" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E578" t="e">
         <f>VLOOKUP(A578,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38804,10 +38814,10 @@
         <v>171</v>
       </c>
       <c r="B579" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C579" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E579" t="str">
         <f>VLOOKUP(A579,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38827,10 +38837,10 @@
         <v>174</v>
       </c>
       <c r="B580" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C580" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E580" t="str">
         <f>VLOOKUP(A580,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38850,10 +38860,10 @@
         <v>175</v>
       </c>
       <c r="B581" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C581" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E581" t="str">
         <f>VLOOKUP(A581,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38870,13 +38880,13 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B582" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C582" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E582" t="str">
         <f>VLOOKUP(A582,[1]Editado!$A$4:$G$1099,3,FALSE)</f>
@@ -38893,10 +38903,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B583" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C583" t="s">
         <v>44</v>
@@ -38916,10 +38926,10 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B584" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C584" t="s">
         <v>44</v>
